--- a/learn_everyday.xlsx
+++ b/learn_everyday.xlsx
@@ -532,7 +532,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>43080</v>
+        <v>43079</v>
       </c>
     </row>
   </sheetData>

--- a/learn_everyday.xlsx
+++ b/learn_everyday.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Subclass</t>
   </si>
@@ -47,9 +47,6 @@
     <t>https://medium.com/@ageitgey/machine-learning-is-fun-80ea3ec3c471</t>
   </si>
   <si>
-    <t>12/102017</t>
-  </si>
-  <si>
     <t>Machine Learning Crash Course: Part 1</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>http://nbviewer.jupyter.org/github/rhiever/Data-Analysis-and-Machine-Learning-Projects/blob/master/example-data-science-notebook/Example%20Machine%20Learning%20Notebook.ipynb</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>example_machine_learning.py</t>
   </si>
 </sst>
 </file>
@@ -119,12 +122,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,21 +444,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03CA27F-C63C-47C2-8C3D-E7D485C49C39}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,8 +472,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -478,70 +486,71 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2" s="2">
+        <v>43079</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2">
         <v>43079</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
         <v>43079</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>43079</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EE0C2F6C-F864-4E54-B666-4DC8B7615058}"/>
-    <hyperlink ref="A6" r:id="rId2" display="http://nbviewer.jupyter.org/github/rhiever/Data-Analysis-and-Machine-Learning-Projects/blob/master/example-data-science-notebook/Example Machine Learning Notebook.ipynb" xr:uid="{22C808EB-2FF7-42EF-81C6-E069260F45C5}"/>
-    <hyperlink ref="B6" r:id="rId3" display="http://nbviewer.jupyter.org/github/rhiever/Data-Analysis-and-Machine-Learning-Projects/blob/master/example-data-science-notebook/Example Machine Learning Notebook.ipynb" xr:uid="{97536A73-2F94-4A3F-A384-1D333C5D9CA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
 </worksheet>
 </file>
--- a/learn_everyday.xlsx
+++ b/learn_everyday.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Subclass</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>example_machine_learning.py</t>
+  </si>
+  <si>
+    <t>Machine Learning Crash Course: Part 4</t>
+  </si>
+  <si>
+    <t>https://ml.berkeley.edu/blog/2017/07/13/tutorial-4/</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03CA27F-C63C-47C2-8C3D-E7D485C49C39}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,29 +534,45 @@
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="2">
+        <v>43080</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>43079</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EE0C2F6C-F864-4E54-B666-4DC8B7615058}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{3483E081-1E82-4986-B98E-B283B4136290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId3"/>
 </worksheet>
 </file>
--- a/learn_everyday.xlsx
+++ b/learn_everyday.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +548,9 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2">
+        <v>43081</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">

--- a/learn_everyday.xlsx
+++ b/learn_everyday.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Subclass</t>
   </si>
@@ -84,6 +84,27 @@
   </si>
   <si>
     <t>https://ml.berkeley.edu/blog/2017/07/13/tutorial-4/</t>
+  </si>
+  <si>
+    <t>Python App</t>
+  </si>
+  <si>
+    <t>Building a Simple Web App With Bottle, SQLAlchemy, and the Twitter API</t>
+  </si>
+  <si>
+    <t>https://realpython.com/blog/python/building-a-simple-web-app-with-bottle-sqlalchemy-twitter-api/</t>
+  </si>
+  <si>
+    <t>Image Recognition</t>
+  </si>
+  <si>
+    <t>https://medium.com/@ageitgey/how-to-break-a-captcha-system-in-15-minutes-with-machine-learning-dbebb035a710</t>
+  </si>
+  <si>
+    <t>How to break a CAPTCHA system in 15 minutes with Machine Learning</t>
+  </si>
+  <si>
+    <t>Z:\learn_everyday\12.13.17_captcha</t>
   </si>
 </sst>
 </file>
@@ -450,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03CA27F-C63C-47C2-8C3D-E7D485C49C39}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +483,7 @@
     <col min="2" max="2" width="37.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -472,7 +493,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -567,6 +588,34 @@
       </c>
       <c r="E7" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43082</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/learn_everyday.xlsx
+++ b/learn_everyday.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Subclass</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Z:\learn_everyday\12.13.17_captcha</t>
+  </si>
+  <si>
+    <t>Python Tutorial</t>
+  </si>
+  <si>
+    <t>https://www.dataquest.io/blog/pandas-concatenation-tutorial/</t>
+  </si>
+  <si>
+    <t>Pandas Concatenation Tutorial</t>
   </si>
 </sst>
 </file>
@@ -471,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03CA27F-C63C-47C2-8C3D-E7D485C49C39}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +627,20 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43083</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{EE0C2F6C-F864-4E54-B666-4DC8B7615058}"/>
